--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{46CEDE89-FD9E-4690-B5C5-B29E799A17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B40CDE-2A8B-4D5A-84C2-16E381262F77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CC558-7F49-46FD-B25F-4DCB46BE2056}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3012" firstSheet="1" activeTab="1" xr2:uid="{BB6213D1-8BB6-4E4E-BE12-E366CA7CC0D7}"/>
   </bookViews>
@@ -16,19 +16,10 @@
     <sheet name="ДПИ" sheetId="1" r:id="rId1"/>
     <sheet name="ИТМО" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -229,15 +220,9 @@
     <t>а мы из ДПИ, поэтому...)</t>
   </si>
   <si>
-    <t>добавила дублирующиеся вопросы:</t>
-  </si>
-  <si>
     <t>ну фактически щас - нет</t>
   </si>
   <si>
-    <t>2, 5, 6, 15, 28, 30</t>
-  </si>
-  <si>
     <t xml:space="preserve">но привычки старые остались </t>
   </si>
   <si>
@@ -247,17 +232,23 @@
     <t>ХЗПВХЗПАВПЩАЗХ</t>
   </si>
   <si>
-    <t>13, 16, 35, 36</t>
-  </si>
-  <si>
     <t>буду ЭРА у минут через 20</t>
+  </si>
+  <si>
+    <t>13, 35, 36</t>
+  </si>
+  <si>
+    <t>Сделанные вопросы</t>
+  </si>
+  <si>
+    <t>2, 5, 6, 15, 16, 17, 28, 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +278,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1223,6 +1216,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,9 +1362,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,9 +1391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>1512570</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1437,9 +1430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1477,7 +1470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1583,7 +1576,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1739,20 +1732,20 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1760,12 +1753,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1776,12 +1769,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1792,23 +1785,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1816,12 +1809,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1829,12 +1822,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.9" customHeight="1">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1842,19 +1835,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1"/>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>13</v>
@@ -1863,7 +1856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1865,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -1883,7 +1876,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -1894,7 +1887,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
@@ -1905,7 +1898,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1907,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1923,7 +1916,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>23</v>
       </c>
@@ -1932,7 +1925,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="61.5">
+    <row r="26" spans="1:3" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="B26" s="40" t="s">
         <v>24</v>
       </c>
@@ -1956,174 +1949,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E2A2D0-4DDA-4DF8-9597-877A73A7B3B6}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="81"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="57" t="s">
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="57" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="57" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="58"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="S3" s="59"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="65" t="s">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="59">
+      <c r="O4" s="61"/>
+      <c r="P4" s="60">
         <v>44410</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="65" t="s">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="60"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
+      <c r="S4" s="61"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="93">
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="94">
         <v>44417</v>
       </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61" t="s">
+      <c r="O5" s="63"/>
+      <c r="P5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="61" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="62"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="S5" s="63"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="63" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="63" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="63" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="64"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="H8" s="81" t="s">
+      <c r="S6" s="65"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="81"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="I8" s="82"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2137,17 +2130,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="H11" s="75">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H11" s="76">
         <v>1</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2164,13 +2157,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2187,13 +2180,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2210,22 +2203,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T14" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2239,17 +2232,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60">
+    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2266,22 +2259,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="8:20">
+    <row r="17" spans="8:20" x14ac:dyDescent="0.3">
       <c r="T17" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="8:20">
+    <row r="18" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2298,21 +2291,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="8:20" ht="30">
+    <row r="19" spans="8:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="94" t="s">
+      <c r="O19" s="46" t="s">
         <v>61</v>
       </c>
       <c r="P19" s="39" t="s">
@@ -2322,36 +2315,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="8:20" ht="60">
+    <row r="20" spans="8:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="N20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" t="s">
         <v>64</v>
       </c>
-      <c r="T20" t="s">
+    </row>
+    <row r="21" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" s="44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="8:20">
-      <c r="N21" t="s">
+    <row r="22" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
         <v>66</v>
       </c>
-      <c r="T21" s="44" t="s">
+      <c r="T22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="8:20">
-      <c r="N22" t="s">
+    <row r="23" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+      <c r="T23" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="T22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="8:20">
-      <c r="N23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23" s="44" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CC558-7F49-46FD-B25F-4DCB46BE2056}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D971FE3-0A92-4161-9782-B3249B7E6989}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3012" firstSheet="1" activeTab="1" xr2:uid="{BB6213D1-8BB6-4E4E-BE12-E366CA7CC0D7}"/>
   </bookViews>
@@ -241,7 +241,7 @@
     <t>Сделанные вопросы</t>
   </si>
   <si>
-    <t>2, 5, 6, 15, 16, 17, 28, 30</t>
+    <t>2, 5, 6, 15, 16, 17, 18, 28, 30</t>
   </si>
 </sst>
 </file>
@@ -1252,115 +1252,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,10 +1972,10 @@
       <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="82"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
@@ -1993,25 +1993,25 @@
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="58" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="58" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="59"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
@@ -2022,25 +2022,25 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="66" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="60">
+      <c r="O4" s="76"/>
+      <c r="P4" s="93">
         <v>44410</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="66" t="s">
+      <c r="Q4" s="76"/>
+      <c r="R4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="61"/>
+      <c r="S4" s="76"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
@@ -2051,25 +2051,25 @@
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="94">
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="77">
         <v>44417</v>
       </c>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62" t="s">
+      <c r="O5" s="78"/>
+      <c r="P5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="62" t="s">
+      <c r="Q5" s="78"/>
+      <c r="R5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="63"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
@@ -2080,43 +2080,43 @@
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="64" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="64" t="s">
+      <c r="O6" s="80"/>
+      <c r="P6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="64" t="s">
+      <c r="Q6" s="80"/>
+      <c r="R6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="65"/>
+      <c r="S6" s="80"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2131,16 +2131,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H11" s="76">
+      <c r="H11" s="87">
         <v>1</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2158,12 +2158,12 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2181,12 +2181,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2212,13 +2212,13 @@
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2236,13 +2236,13 @@
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2268,13 +2268,13 @@
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2295,13 +2295,13 @@
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
@@ -2349,12 +2349,20 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:M13"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="I10:M10"/>
@@ -2366,20 +2374,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:M13"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D971FE3-0A92-4161-9782-B3249B7E6989}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE81851-176B-41EE-8EE1-74B87DE63F25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3012" firstSheet="1" activeTab="1" xr2:uid="{BB6213D1-8BB6-4E4E-BE12-E366CA7CC0D7}"/>
   </bookViews>
@@ -241,7 +241,7 @@
     <t>Сделанные вопросы</t>
   </si>
   <si>
-    <t>2, 5, 6, 15, 16, 17, 18, 28, 30</t>
+    <t>2, 5, 6, 15, 16, 17, 18, 21, 28, 30</t>
   </si>
 </sst>
 </file>
@@ -1252,30 +1252,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1303,64 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,10 +1972,10 @@
       <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
@@ -1993,25 +1993,25 @@
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="62" t="s">
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="65"/>
+      <c r="S3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
@@ -2022,25 +2022,25 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="75" t="s">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="93">
+      <c r="O4" s="61"/>
+      <c r="P4" s="60">
         <v>44410</v>
       </c>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="75" t="s">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
@@ -2051,25 +2051,25 @@
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="77">
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="94">
         <v>44417</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="94" t="s">
+      <c r="O5" s="63"/>
+      <c r="P5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="94" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="78"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
@@ -2080,43 +2080,43 @@
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="79" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="79" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="79" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="65"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="58"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2131,16 +2131,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H11" s="87">
+      <c r="H11" s="76">
         <v>1</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2158,12 +2158,12 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2181,12 +2181,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2212,13 +2212,13 @@
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2236,13 +2236,13 @@
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2268,13 +2268,13 @@
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2295,13 +2295,13 @@
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
@@ -2349,20 +2349,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="I10:M10"/>
@@ -2374,12 +2366,20 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE81851-176B-41EE-8EE1-74B87DE63F25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3544C-3C5F-4467-A560-19B2ED21AA1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3012" firstSheet="1" activeTab="1" xr2:uid="{BB6213D1-8BB6-4E4E-BE12-E366CA7CC0D7}"/>
   </bookViews>
@@ -226,22 +226,22 @@
     <t xml:space="preserve">но привычки старые остались </t>
   </si>
   <si>
-    <t>наметила вопросы (скорее всего и закончу их)</t>
-  </si>
-  <si>
     <t>ХЗПВХЗПАВПЩАЗХ</t>
   </si>
   <si>
     <t>буду ЭРА у минут через 20</t>
   </si>
   <si>
-    <t>13, 35, 36</t>
-  </si>
-  <si>
     <t>Сделанные вопросы</t>
   </si>
   <si>
-    <t>2, 5, 6, 15, 16, 17, 18, 21, 28, 30</t>
+    <t>2, 5, 6, 15-18, 21, 28, 30</t>
+  </si>
+  <si>
+    <t>наметила вопросы</t>
+  </si>
+  <si>
+    <t>13, 21, 35, 36</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="20" spans="8:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="N20" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T20" t="s">
         <v>64</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="21" spans="8:20" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T21" s="44" t="s">
         <v>65</v>
@@ -2333,18 +2333,18 @@
     </row>
     <row r="22" spans="8:20" x14ac:dyDescent="0.3">
       <c r="N22" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" t="s">
         <v>66</v>
-      </c>
-      <c r="T22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="8:20" x14ac:dyDescent="0.3">
       <c r="N23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T23" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3544C-3C5F-4467-A560-19B2ED21AA1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDE412-B4BD-44F1-9D9D-A3EAE87586A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3012" firstSheet="1" activeTab="1" xr2:uid="{BB6213D1-8BB6-4E4E-BE12-E366CA7CC0D7}"/>
   </bookViews>
@@ -241,7 +241,7 @@
     <t>наметила вопросы</t>
   </si>
   <si>
-    <t>13, 21, 35, 36</t>
+    <t>13, 19, 21, 35, 36</t>
   </si>
 </sst>
 </file>
@@ -1252,115 +1252,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,10 +1972,10 @@
       <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="82"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
@@ -1993,25 +1993,25 @@
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="58" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="58" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="59"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
@@ -2022,25 +2022,25 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="66" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="60">
+      <c r="O4" s="76"/>
+      <c r="P4" s="93">
         <v>44410</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="66" t="s">
+      <c r="Q4" s="76"/>
+      <c r="R4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="61"/>
+      <c r="S4" s="76"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
@@ -2051,25 +2051,25 @@
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="94">
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="77">
         <v>44417</v>
       </c>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62" t="s">
+      <c r="O5" s="78"/>
+      <c r="P5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="62" t="s">
+      <c r="Q5" s="78"/>
+      <c r="R5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="63"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
@@ -2080,43 +2080,43 @@
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="64" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="64" t="s">
+      <c r="O6" s="80"/>
+      <c r="P6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="64" t="s">
+      <c r="Q6" s="80"/>
+      <c r="R6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="65"/>
+      <c r="S6" s="80"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2131,16 +2131,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H11" s="76">
+      <c r="H11" s="87">
         <v>1</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2158,12 +2158,12 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2181,12 +2181,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2212,13 +2212,13 @@
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2236,13 +2236,13 @@
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2268,13 +2268,13 @@
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2295,13 +2295,13 @@
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
@@ -2349,12 +2349,20 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:M13"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="I10:M10"/>
@@ -2366,20 +2374,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:M13"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4 course\МАГИСТРАТУРА\docs\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosenko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDE412-B4BD-44F1-9D9D-A3EAE87586A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3012" firstSheet="1" activeTab="1" xr2:uid="{BB6213D1-8BB6-4E4E-BE12-E366CA7CC0D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ДПИ" sheetId="1" r:id="rId1"/>
     <sheet name="ИТМО" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,19 +234,19 @@
     <t>Сделанные вопросы</t>
   </si>
   <si>
-    <t>2, 5, 6, 15-18, 21, 28, 30</t>
-  </si>
-  <si>
     <t>наметила вопросы</t>
   </si>
   <si>
-    <t>13, 19, 21, 35, 36</t>
+    <t>2, 5, 6, 15-19, 21, 23, 28, 30</t>
+  </si>
+  <si>
+    <t>13, 21, 35, 36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1252,30 +1251,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1303,64 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1400,7 +1399,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52CD818-95D3-4E0D-BB0F-630C521DE7FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E52CD818-95D3-4E0D-BB0F-630C521DE7FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,22 +1724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ACB90C-02DD-4564-9272-2F39DB2B5266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>9</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
@@ -1846,8 +1845,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>13</v>
@@ -1856,7 +1855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -1865,7 +1864,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +1906,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1915,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1924,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="61.2" x14ac:dyDescent="1.1000000000000001">
+    <row r="26" spans="1:3" ht="61.5" x14ac:dyDescent="0.9">
       <c r="B26" s="40" t="s">
         <v>24</v>
       </c>
@@ -1946,45 +1945,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E2A2D0-4DDA-4DF8-9597-877A73A7B3B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="48"/>
       <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -1993,27 +1992,27 @@
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="62" t="s">
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="65"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S3" s="59"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -2022,27 +2021,27 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="75" t="s">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="93">
+      <c r="O4" s="61"/>
+      <c r="P4" s="60">
         <v>44410</v>
       </c>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="75" t="s">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="76"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="61"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -2051,27 +2050,27 @@
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="77">
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="94">
         <v>44417</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="94" t="s">
+      <c r="O5" s="63"/>
+      <c r="P5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="94" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="78"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S5" s="63"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -2080,43 +2079,43 @@
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="79" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="79" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="79" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="80"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H8" s="58" t="s">
+      <c r="S6" s="65"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I8" s="82"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2130,17 +2129,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H11" s="87">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H11" s="76">
         <v>1</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2157,13 +2156,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2180,13 +2179,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2203,22 +2202,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T14" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2232,17 +2231,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2259,22 +2258,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:20" x14ac:dyDescent="0.25">
       <c r="T17" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2291,17 +2290,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="8:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:20" ht="30" x14ac:dyDescent="0.25">
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="8:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:20" ht="30" x14ac:dyDescent="0.25">
       <c r="N20" s="43" t="s">
         <v>68</v>
       </c>
@@ -2323,23 +2322,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T21" s="44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
         <v>71</v>
       </c>
@@ -2349,20 +2348,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="I10:M10"/>
@@ -2374,12 +2365,20 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosenko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosenko\Desktop\инфа по проектам\всякое\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="5715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ДПИ" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,10 @@
     <t>наметила вопросы</t>
   </si>
   <si>
-    <t>2, 5, 6, 15-19, 21, 23, 28, 30</t>
-  </si>
-  <si>
-    <t>13, 21, 35, 36</t>
+    <t>35, 36</t>
+  </si>
+  <si>
+    <t>2, 5-6, 13, 15-19, 21-23, 28, 30</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="21" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T21" s="44" t="s">
         <v>65</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="23" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T23" s="44" t="s">
         <v>67</v>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosenko\Desktop\инфа по проектам\всякое\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Project\Phoenix\docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Документы</t>
   </si>
@@ -210,9 +210,6 @@
     <t>13-24</t>
   </si>
   <si>
-    <t>27?, 31-33, 35?, 36?</t>
-  </si>
-  <si>
     <t>1-12</t>
   </si>
   <si>
@@ -234,19 +231,19 @@
     <t>Сделанные вопросы</t>
   </si>
   <si>
-    <t>наметила вопросы</t>
-  </si>
-  <si>
-    <t>35, 36</t>
-  </si>
-  <si>
-    <t>2, 5-6, 13, 15-19, 21-23, 28, 30</t>
+    <t>27?</t>
+  </si>
+  <si>
+    <t>2, 5-6, 13, 15-19, 21-23</t>
+  </si>
+  <si>
+    <t>поддерживаю</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,115 +1248,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1388,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1512570</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1399,7 +1396,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E52CD818-95D3-4E0D-BB0F-630C521DE7FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52CD818-95D3-4E0D-BB0F-630C521DE7FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,10 +1968,10 @@
       <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="82"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
@@ -1992,25 +1989,25 @@
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="58" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="58" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="59"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
@@ -2021,25 +2018,25 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="66" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="60">
+      <c r="O4" s="76"/>
+      <c r="P4" s="93">
         <v>44410</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="66" t="s">
+      <c r="Q4" s="76"/>
+      <c r="R4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="61"/>
+      <c r="S4" s="76"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
@@ -2050,25 +2047,25 @@
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="94">
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="77">
         <v>44417</v>
       </c>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62" t="s">
+      <c r="O5" s="78"/>
+      <c r="P5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="62" t="s">
+      <c r="Q5" s="78"/>
+      <c r="R5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="63"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -2079,43 +2076,43 @@
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="64" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="64" t="s">
+      <c r="O6" s="80"/>
+      <c r="P6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="64" t="s">
+      <c r="Q6" s="80"/>
+      <c r="R6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="65"/>
+      <c r="S6" s="80"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2130,16 +2127,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H11" s="76">
+      <c r="H11" s="87">
         <v>1</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2157,12 +2154,12 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2180,12 +2177,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2211,13 +2208,13 @@
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2235,13 +2232,13 @@
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2267,13 +2264,13 @@
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2290,70 +2287,75 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="8:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
       <c r="O19" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="R19" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="44" t="s">
         <v>62</v>
-      </c>
-      <c r="T19" s="44" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="8:20" ht="30" x14ac:dyDescent="0.25">
       <c r="N20" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T21" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
-        <v>69</v>
-      </c>
-      <c r="T22" t="s">
+    <row r="23" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="T23" s="44" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="N23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23" s="44" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:M13"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="I10:M10"/>
@@ -2365,20 +2367,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:M13"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Экзамены.xlsx
+++ b/docs/Экзамены.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Документы</t>
   </si>
@@ -207,9 +207,6 @@
     <t>перейди на вкладку ДПИ, узнаешь кто сосет</t>
   </si>
   <si>
-    <t>13-24</t>
-  </si>
-  <si>
     <t>1-12</t>
   </si>
   <si>
@@ -231,13 +228,13 @@
     <t>Сделанные вопросы</t>
   </si>
   <si>
-    <t>27?</t>
-  </si>
-  <si>
     <t>2, 5-6, 13, 15-19, 21-23</t>
   </si>
   <si>
     <t>поддерживаю</t>
+  </si>
+  <si>
+    <t>20?</t>
   </si>
 </sst>
 </file>
@@ -1248,30 +1245,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1299,64 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1945,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,10 +1965,10 @@
       <c r="C1" s="49"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
@@ -1989,25 +1986,25 @@
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="62" t="s">
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="65"/>
+      <c r="S3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
@@ -2018,25 +2015,25 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="75" t="s">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="93">
+      <c r="O4" s="61"/>
+      <c r="P4" s="60">
         <v>44410</v>
       </c>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="75" t="s">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
@@ -2047,25 +2044,25 @@
       <c r="H5" s="20">
         <v>2</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="77">
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="94">
         <v>44417</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="94" t="s">
+      <c r="O5" s="63"/>
+      <c r="P5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="94" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="78"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -2076,43 +2073,43 @@
       <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="79" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="79" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="79" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="65"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="58"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="28" t="s">
         <v>38</v>
       </c>
@@ -2127,16 +2124,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H11" s="87">
+      <c r="H11" s="76">
         <v>1</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="28" t="s">
         <v>39</v>
       </c>
@@ -2154,12 +2151,12 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="20" t="s">
         <v>42</v>
       </c>
@@ -2177,12 +2174,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="22" t="s">
         <v>45</v>
       </c>
@@ -2208,13 +2205,13 @@
       <c r="H15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="29" t="s">
         <v>28</v>
       </c>
@@ -2232,13 +2229,13 @@
       <c r="H16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="35" t="s">
         <v>52</v>
       </c>
@@ -2264,13 +2261,13 @@
       <c r="H18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="29" t="s">
         <v>28</v>
       </c>
@@ -2291,71 +2288,63 @@
       <c r="H19" s="37">
         <v>3</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="46" t="s">
+      <c r="R19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="T19" s="44" t="s">
         <v>61</v>
-      </c>
-      <c r="R19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19" s="44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="8:20" ht="30" x14ac:dyDescent="0.25">
       <c r="N20" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="8:20" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T21" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="8:20" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="8:20" x14ac:dyDescent="0.25">
       <c r="T23" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="I10:M10"/>
@@ -2367,12 +2356,20 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
